--- a/biology/Zoologie/Homalophis_doriae/Homalophis_doriae.xlsx
+++ b/biology/Zoologie/Homalophis_doriae/Homalophis_doriae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homalophis doriae est une espèce de serpents de la famille des Homalopsidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homalophis doriae est une espèce de serpents de la famille des Homalopsidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sarawak en Malaisie[1],[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sarawak en Malaisie,. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giacomo Doria[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Giacomo Doria.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1871 : Über neue Reptilien aus Ostafrika und Sarawak (Borneo), vorzüglich aus der Sammlung des Hrn. Marquis J. Doria zu Genua. Monatsberichte der Königlichen Akademie der Wissenschaften zu Berlin, vol. 1871, p. 566-581 (texte intégral).</t>
         </is>
